--- a/커뮤니티 프로젝트 설계서.xlsx
+++ b/커뮤니티 프로젝트 설계서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\505-07\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,58 @@
   </si>
   <si>
     <t>유저, 관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery를 이용해 ID/비밀번호 찾기 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery를 이용해 회원가입 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID/PW 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따로 받은 생년, 생월, 생일을 조합해서 VO에 저장 후 DB에 INSERT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크 클릭 시 권한 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일로 발송된 인증링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 권한 테이블에서 아이디 권한 ROLE_USER로 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저 ID 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax를 이용해 해당 email로 가입된 아이디 체크, 아이디 첫 2글자 뒤에 **를 붙여서 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,23 +241,31 @@
 2. Spring Security에서 지정해준 AuthenticationProvider를 상속받은 서비스로 login 정보 넘어감
 3. Provider에서 인증정보 ID를 기준으로 DB에서 정보 가져온 뒤 입력받은 비밀번호를 bCryptPasswordEncoder를 이용해 일치하는지 확인
 4. 일치하지 않으면 throw new SpringSecurityException, view에서 내용 보여줌
-5. 일치하면 유저정보와 권한이 담긴 토큰 return. 이 리턴된 토큰은 SecurityContextHolder에 저장됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery를 이용해 ID/비밀번호 찾기 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery를 이용해 회원가입 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID/PW 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID찾기</t>
+5. 일치하면 유저정보와 권한이 담긴 토큰 return. 이 리턴된 토큰은 SecurityContextHolder에 저장됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식 유효성 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 유효성 검사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,51 +273,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID찾기 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따로 받은 생년, 생월, 생일을 조합해서 VO에 저장 후 DB에 INSERT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성 검사 통과 시 ajax를 이용해 form submit, 인증메일 발송, 권한 ROLE_UNAUTH로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>링크 클릭 시 권한 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메일로 발송된 인증링크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB 권한 테이블에서 아이디 권한 ROLE_USER로 업데이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID찾기 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저 ID 값</t>
+    <t>비밀번호 찾기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 찾기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 찾기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 찾기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 과부하 방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax를 이용해 form submit, 인증메일 발송, 권한 ROLE_UNAUTH로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성 검사 통과 시 이메일 스팸 및 서버 부하를 줄이기 위해 ajax 완료될 때까지 버튼 기능 끄기
+ajax 완료 후 버튼 기능 켜기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax를 이용해 아이디와 이메일 값 체크
+1. 등록되지 않은 아이디, 등록된 아이디지만 email이 다름, 등록된 ID와 email이 같은 경우, 메일발송 실패
+4가지 경우로 나누어 사용자에게 알림
+2. 등록된 ID와 email이 같은 경우만 ID 입력, Email 입력창 value 지움</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -658,9 +706,9 @@
     <col min="1" max="1" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="93.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="100.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -703,130 +751,126 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
@@ -835,118 +879,169 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B20" s="7"/>
       <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>46</v>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/커뮤니티 프로젝트 설계서.xlsx
+++ b/커뮤니티 프로젝트 설계서.xlsx
@@ -2752,6 +2752,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="13.25" customWidth="1"/>

--- a/커뮤니티 프로젝트 설계서.xlsx
+++ b/커뮤니티 프로젝트 설계서.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sif\Community_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22404D65-DA27-447B-BFB6-6205CA3AF452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="구성" sheetId="1" r:id="rId1"/>
     <sheet name="구현할 거" sheetId="2" r:id="rId2"/>
     <sheet name="버그" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -381,10 +382,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DB에 등록된 게시판 번호에 맞는 게시글 목록을 보여주기, 클릭 시 상세보기 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -913,13 +910,17 @@
   </si>
   <si>
     <t>게시판 카테고리 삭제 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB에 등록된 게시판 번호에 맞는 게시글 목록을 보여주기, 제목 클릭 시 상세보기 페이지로 이동, 닉네임 클릭 시 작성 글 보기 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1682,16 +1683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.75" style="1" bestFit="1" customWidth="1"/>
@@ -2096,14 +2095,14 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="31"/>
       <c r="C27" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="11"/>
@@ -2112,11 +2111,11 @@
       <c r="B28" s="31"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="15"/>
@@ -2125,14 +2124,14 @@
       <c r="B29" s="31"/>
       <c r="C29" s="12"/>
       <c r="D29" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>146</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>147</v>
       </c>
       <c r="H29" s="15"/>
     </row>
@@ -2141,13 +2140,13 @@
       <c r="C30" s="12"/>
       <c r="D30" s="6"/>
       <c r="E30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="H30" s="15"/>
     </row>
@@ -2155,11 +2154,11 @@
       <c r="B31" s="31"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="15"/>
@@ -2168,11 +2167,11 @@
       <c r="B32" s="31"/>
       <c r="C32" s="12"/>
       <c r="D32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="15"/>
@@ -2182,10 +2181,10 @@
       <c r="C33" s="12"/>
       <c r="D33" s="7"/>
       <c r="E33" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>153</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="15"/>
@@ -2195,13 +2194,13 @@
       <c r="C34" s="12"/>
       <c r="D34" s="7"/>
       <c r="E34" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="H34" s="15"/>
     </row>
@@ -2210,13 +2209,13 @@
       <c r="C35" s="12"/>
       <c r="D35" s="7"/>
       <c r="E35" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H35" s="15"/>
     </row>
@@ -2225,13 +2224,13 @@
       <c r="C36" s="12"/>
       <c r="D36" s="6"/>
       <c r="E36" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>161</v>
-      </c>
       <c r="G36" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H36" s="15"/>
     </row>
@@ -2239,11 +2238,11 @@
       <c r="B37" s="31"/>
       <c r="C37" s="12"/>
       <c r="D37" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="15"/>
@@ -2252,7 +2251,7 @@
       <c r="B38" s="31"/>
       <c r="C38" s="12"/>
       <c r="D38" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="13" t="s">
@@ -2267,14 +2266,14 @@
       <c r="B39" s="32"/>
       <c r="C39" s="18"/>
       <c r="D39" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="H39" s="20"/>
     </row>
@@ -2308,7 +2307,7 @@
         <v>85</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="H41" s="11"/>
     </row>
@@ -2316,14 +2315,14 @@
       <c r="B42" s="31"/>
       <c r="C42" s="12"/>
       <c r="D42" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="13" t="s">
         <v>108</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="H42" s="15"/>
     </row>
@@ -2338,7 +2337,7 @@
         <v>82</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H43" s="15"/>
     </row>
@@ -2346,14 +2345,14 @@
       <c r="B44" s="31"/>
       <c r="C44" s="12"/>
       <c r="D44" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>113</v>
       </c>
       <c r="H44" s="15"/>
     </row>
@@ -2361,14 +2360,14 @@
       <c r="B45" s="31"/>
       <c r="C45" s="12"/>
       <c r="D45" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="G45" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="H45" s="15"/>
     </row>
@@ -2377,10 +2376,10 @@
       <c r="C46" s="12"/>
       <c r="D46" s="7"/>
       <c r="E46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G46" s="13"/>
       <c r="H46" s="15"/>
@@ -2390,13 +2389,13 @@
       <c r="C47" s="12"/>
       <c r="D47" s="7"/>
       <c r="E47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="G47" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="H47" s="15"/>
     </row>
@@ -2405,13 +2404,13 @@
       <c r="C48" s="12"/>
       <c r="D48" s="7"/>
       <c r="E48" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F48" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="G48" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="H48" s="15"/>
     </row>
@@ -2420,13 +2419,13 @@
       <c r="C49" s="12"/>
       <c r="D49" s="7"/>
       <c r="E49" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H49" s="15"/>
     </row>
@@ -2435,13 +2434,13 @@
       <c r="C50" s="12"/>
       <c r="D50" s="7"/>
       <c r="E50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="G50" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="H50" s="15"/>
     </row>
@@ -2450,13 +2449,13 @@
       <c r="C51" s="12"/>
       <c r="D51" s="7"/>
       <c r="E51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="G51" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H51" s="15"/>
     </row>
@@ -2465,13 +2464,13 @@
       <c r="C52" s="12"/>
       <c r="D52" s="7"/>
       <c r="E52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="G52" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="H52" s="15"/>
     </row>
@@ -2480,10 +2479,10 @@
       <c r="C53" s="12"/>
       <c r="D53" s="7"/>
       <c r="E53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="15"/>
@@ -2493,10 +2492,10 @@
       <c r="C54" s="12"/>
       <c r="D54" s="7"/>
       <c r="E54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="G54" s="13"/>
       <c r="H54" s="15"/>
@@ -2506,30 +2505,30 @@
       <c r="C55" s="18"/>
       <c r="D55" s="22"/>
       <c r="E55" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="G55" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="G55" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="H55" s="20"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="24"/>
       <c r="F56" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="H56" s="11"/>
     </row>
@@ -2537,14 +2536,14 @@
       <c r="B57" s="31"/>
       <c r="C57" s="12"/>
       <c r="D57" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H57" s="15"/>
     </row>
@@ -2552,13 +2551,13 @@
       <c r="B58" s="31"/>
       <c r="C58" s="12"/>
       <c r="D58" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="G58" s="13"/>
       <c r="H58" s="15"/>
@@ -2568,13 +2567,13 @@
       <c r="C59" s="12"/>
       <c r="D59" s="7"/>
       <c r="E59" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>132</v>
-      </c>
       <c r="G59" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H59" s="15"/>
     </row>
@@ -2583,10 +2582,10 @@
       <c r="C60" s="12"/>
       <c r="D60" s="7"/>
       <c r="E60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="15"/>
@@ -2596,10 +2595,10 @@
       <c r="C61" s="12"/>
       <c r="D61" s="7"/>
       <c r="E61" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G61" s="13"/>
       <c r="H61" s="15"/>
@@ -2609,7 +2608,7 @@
       <c r="C62" s="12"/>
       <c r="D62" s="7"/>
       <c r="E62" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>71</v>
@@ -2622,7 +2621,7 @@
       <c r="C63" s="12"/>
       <c r="D63" s="7"/>
       <c r="E63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F63" s="13" t="s">
         <v>66</v>
@@ -2637,13 +2636,13 @@
       <c r="C64" s="12"/>
       <c r="D64" s="7"/>
       <c r="E64" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H64" s="15"/>
     </row>
@@ -2652,13 +2651,13 @@
       <c r="C65" s="12"/>
       <c r="D65" s="6"/>
       <c r="E65" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="G65" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="H65" s="15"/>
     </row>
@@ -2666,16 +2665,16 @@
       <c r="B66" s="31"/>
       <c r="C66" s="12"/>
       <c r="D66" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F66" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F66" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="G66" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H66" s="15"/>
     </row>
@@ -2684,13 +2683,13 @@
       <c r="C67" s="12"/>
       <c r="D67" s="6"/>
       <c r="E67" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H67" s="15"/>
     </row>
@@ -2698,13 +2697,13 @@
       <c r="B68" s="31"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="G68" s="13"/>
       <c r="H68" s="15"/>
@@ -2714,10 +2713,10 @@
       <c r="C69" s="12"/>
       <c r="D69" s="7"/>
       <c r="E69" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="15"/>
@@ -2727,13 +2726,13 @@
       <c r="C70" s="18"/>
       <c r="D70" s="22"/>
       <c r="E70" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F70" s="19" t="s">
+      <c r="G70" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="G70" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="H70" s="20"/>
     </row>
@@ -2745,10 +2744,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2761,104 +2760,104 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="39" t="s">
         <v>194</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="2">
         <v>3</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" s="49">
         <v>1</v>
@@ -2867,10 +2866,10 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D10" s="25">
         <v>2</v>
@@ -2884,7 +2883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2900,24 +2899,24 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/커뮤니티 프로젝트 설계서.xlsx
+++ b/커뮤니티 프로젝트 설계서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming Works\workspace\CommunityWorks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22404D65-DA27-447B-BFB6-6205CA3AF452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E22AFFA-F60F-4D25-8F27-B55D4E52364A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="216">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,14 +795,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>댓글의 댓글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답글의 답글</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 체크버튼 글 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -824,14 +816,6 @@
   </si>
   <si>
     <t>추천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한답글+페이징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한댓글+페이징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2307,7 +2291,7 @@
         <v>85</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H41" s="11"/>
     </row>
@@ -2745,7 +2729,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2760,121 +2744,97 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="39" t="s">
         <v>192</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="41"/>
+        <v>189</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>204</v>
+      </c>
       <c r="D3" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="41"/>
+        <v>193</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="40" t="s">
-        <v>195</v>
+      <c r="B6" s="46" t="s">
+        <v>196</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="49">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="25">
         <v>2</v>
       </c>
-      <c r="E6" s="42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="D9" s="49">
-        <v>1</v>
-      </c>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="25">
-        <v>2</v>
-      </c>
-      <c r="E10" s="44"/>
+      <c r="E8" s="44"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2886,9 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2899,24 +2857,24 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
